--- a/project/results/true.xlsx
+++ b/project/results/true.xlsx
@@ -440,12 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -470,12 +470,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -485,22 +485,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -510,7 +510,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -535,12 +535,12 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -555,7 +555,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +570,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -605,12 +605,12 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -625,12 +625,12 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -640,7 +640,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -665,7 +665,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
